--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_14_7.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_14_7.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999952758654821</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990507587887839</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999956257227229</v>
+        <v>0.9999999999999789</v>
       </c>
       <c r="E2" t="n">
-        <v>0.99998647402449</v>
+        <v>0.9999945721615463</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999935024011418</v>
+        <v>0.9999988831789071</v>
       </c>
       <c r="G2" t="n">
-        <v>4.4097722068849e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008860750037966321</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I2" t="n">
-        <v>3.977034844787751e-06</v>
+        <v>2.521337463430942e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>1.124613632916619e-05</v>
+        <v>1.910840072249828e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>7.61158558697697e-06</v>
+        <v>9.554200487316011e-07</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001701483145632684</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002099945762843627</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000012597692048</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002189344801454878</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P2" t="n">
-        <v>90.66337504721443</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q2" t="n">
-        <v>130.8862772678651</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_1</t>
+          <t>model_14_7_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999959657047837</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990504341883524</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999969485430632</v>
+        <v>0.9999999999999789</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999870692550844</v>
+        <v>0.9999945721615463</v>
       </c>
       <c r="F3" t="n">
-        <v>0.999994226973049</v>
+        <v>0.9999988831789071</v>
       </c>
       <c r="G3" t="n">
-        <v>3.765837499335942e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008863780040512533</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I3" t="n">
-        <v>2.774344147957755e-06</v>
+        <v>2.521337463430942e-14</v>
       </c>
       <c r="J3" t="n">
-        <v>1.075123343616806e-05</v>
+        <v>1.910840072249828e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>6.762788792062905e-06</v>
+        <v>9.554200487316011e-07</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001593658791150228</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001940576589402217</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000010758120577</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0020231909523604</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P3" t="n">
-        <v>90.97908055613311</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q3" t="n">
-        <v>131.2019827767838</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_2</t>
+          <t>model_14_7_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999964023030509</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990499495979523</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999973661615285</v>
+        <v>0.9999999999999789</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999874027114912</v>
+        <v>0.9999945721615463</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999945073720857</v>
+        <v>0.9999988831789071</v>
       </c>
       <c r="G4" t="n">
-        <v>3.358292181332526e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008868303479185281</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I4" t="n">
-        <v>2.39465098193886e-06</v>
+        <v>2.521337463430942e-14</v>
       </c>
       <c r="J4" t="n">
-        <v>1.047398199441646e-05</v>
+        <v>1.910840072249828e-06</v>
       </c>
       <c r="K4" t="n">
-        <v>6.434316488177662e-06</v>
+        <v>9.554200487316011e-07</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001496637118867353</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001832564373039192</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000009593858531</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001910580432330688</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P4" t="n">
-        <v>91.20815598514446</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q4" t="n">
-        <v>131.4310582057951</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_3</t>
+          <t>model_14_7_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.999996652851869</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990493610519141</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999971543799385</v>
+        <v>0.9999999999999789</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999875575158147</v>
+        <v>0.9999945721615463</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999944801248318</v>
+        <v>0.9999988831789071</v>
       </c>
       <c r="G5" t="n">
-        <v>3.124415857467611e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008873797298110933</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I5" t="n">
-        <v>2.587199992755567e-06</v>
+        <v>2.521337463430942e-14</v>
       </c>
       <c r="J5" t="n">
-        <v>1.034527035173725e-05</v>
+        <v>1.910840072249828e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>6.46623517224641e-06</v>
+        <v>9.554200487316011e-07</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001408552251953699</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00176760172478633</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000008925728349</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001842852189650482</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P5" t="n">
-        <v>91.35252643571809</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q5" t="n">
-        <v>131.5754286563687</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_4</t>
+          <t>model_14_7_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999967627334618</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990487073831891</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999964847088021</v>
+        <v>0.9999999999999789</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999875741807155</v>
+        <v>0.9999945721615463</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999942261651233</v>
+        <v>0.9999988831789071</v>
       </c>
       <c r="G6" t="n">
-        <v>3.021846213815153e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008879899008731653</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I6" t="n">
-        <v>3.196056102140955e-06</v>
+        <v>2.521337463430942e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>1.033141436434715e-05</v>
+        <v>1.910840072249828e-06</v>
       </c>
       <c r="K6" t="n">
-        <v>6.763735233244054e-06</v>
+        <v>9.554200487316011e-07</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001330095528019266</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00173834582687541</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000008632710768</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001812350807597436</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P6" t="n">
-        <v>91.41928516857025</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q6" t="n">
-        <v>131.6421873892209</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_5</t>
+          <t>model_14_7_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.999996772456903</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990480264325186</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999955107910145</v>
+        <v>0.9999999999999789</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999874943016297</v>
+        <v>0.9999945721615463</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999938198773151</v>
+        <v>0.9999988831789071</v>
       </c>
       <c r="G7" t="n">
-        <v>3.012769808261213e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008886255384338273</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I7" t="n">
-        <v>4.081529228823349e-06</v>
+        <v>2.521337463430942e-14</v>
       </c>
       <c r="J7" t="n">
-        <v>1.039782961759752e-05</v>
+        <v>1.910840072249828e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>7.239679423210433e-06</v>
+        <v>9.554200487316011e-07</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001302670920619408</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001735733219207725</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000008606781592</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O7" t="n">
-        <v>0.001809626975812495</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P7" t="n">
-        <v>91.42530140049946</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q7" t="n">
-        <v>131.6482036211501</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_6</t>
+          <t>model_14_7_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999967088258427</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990473384616393</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999943338657218</v>
+        <v>0.9999999999999789</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999873512438862</v>
+        <v>0.9999945721615463</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999933123891636</v>
+        <v>0.9999988831789071</v>
       </c>
       <c r="G8" t="n">
-        <v>3.072166610005213e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008892677290512144</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I8" t="n">
-        <v>5.151574084666407e-06</v>
+        <v>2.521337463430942e-14</v>
       </c>
       <c r="J8" t="n">
-        <v>1.05167745975883e-05</v>
+        <v>1.910840072249828e-06</v>
       </c>
       <c r="K8" t="n">
-        <v>7.834174341127352e-06</v>
+        <v>9.554200487316011e-07</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001351179484719374</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001752759712569071</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000008776464419</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001827378322245933</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P8" t="n">
-        <v>91.38625501824356</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q8" t="n">
-        <v>131.6091572388942</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_7</t>
+          <t>model_14_7_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.999996593986646</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990466584745843</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999930343876087</v>
+        <v>0.9999999999999789</v>
       </c>
       <c r="E9" t="n">
-        <v>0.999987167193274</v>
+        <v>0.9999945721615463</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999927427953661</v>
+        <v>0.9999988831789071</v>
       </c>
       <c r="G9" t="n">
-        <v>3.17936395924644e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008899024671189864</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I9" t="n">
-        <v>6.333042338418522e-06</v>
+        <v>2.521337463430942e-14</v>
       </c>
       <c r="J9" t="n">
-        <v>1.066980298912568e-05</v>
+        <v>1.910840072249828e-06</v>
       </c>
       <c r="K9" t="n">
-        <v>8.501422663772104e-06</v>
+        <v>9.554200487316011e-07</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001393770882471097</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001783077104122657</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000009082702277</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001858986387923607</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P9" t="n">
-        <v>91.31765878798601</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q9" t="n">
-        <v>131.5405610086366</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_8</t>
+          <t>model_14_7_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999964440778145</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990459992085706</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999916736448057</v>
+        <v>0.9999999999999789</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999869548781347</v>
+        <v>0.9999945721615463</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999921393965469</v>
+        <v>0.9999988831789071</v>
       </c>
       <c r="G10" t="n">
-        <v>3.319297273233464e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008905178630043863</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I10" t="n">
-        <v>7.570211635184267e-06</v>
+        <v>2.521337463430942e-14</v>
       </c>
       <c r="J10" t="n">
-        <v>1.084633184644114e-05</v>
+        <v>1.910840072249828e-06</v>
       </c>
       <c r="K10" t="n">
-        <v>9.208271740812704e-06</v>
+        <v>9.554200487316011e-07</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001431421900058438</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001821893869914893</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000009482459161</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001899455663797401</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P10" t="n">
-        <v>91.23151492425745</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q10" t="n">
-        <v>131.4544171449081</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_9</t>
+          <t>model_14_7_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999962710817354</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990453633033994</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999902975005999</v>
+        <v>0.9999999999999789</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999867190989938</v>
+        <v>0.9999945721615463</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999915216941082</v>
+        <v>0.9999988831789071</v>
       </c>
       <c r="G11" t="n">
-        <v>3.480781519395905e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008911114525686748</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I11" t="n">
-        <v>8.821383682880222e-06</v>
+        <v>2.521337463430942e-14</v>
       </c>
       <c r="J11" t="n">
-        <v>1.104236978545156e-05</v>
+        <v>1.910840072249828e-06</v>
       </c>
       <c r="K11" t="n">
-        <v>9.931876734165888e-06</v>
+        <v>9.554200487316011e-07</v>
       </c>
       <c r="L11" t="n">
-        <v>0.000146482119845593</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001865685268043864</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000009943782039</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001945111352405414</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P11" t="n">
-        <v>91.13650742970385</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q11" t="n">
-        <v>131.3594096503545</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_10</t>
+          <t>model_14_7_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999960864331567</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990447569437244</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999889355171164</v>
+        <v>0.9999999999999789</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999864849634611</v>
+        <v>0.9999945721615463</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999909100701895</v>
+        <v>0.9999988831789071</v>
       </c>
       <c r="G12" t="n">
-        <v>3.653142862421941e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008916774627091733</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I12" t="n">
-        <v>1.005968098967834e-05</v>
+        <v>2.521337463430942e-14</v>
       </c>
       <c r="J12" t="n">
-        <v>1.123704115082764e-05</v>
+        <v>1.910840072249828e-06</v>
       </c>
       <c r="K12" t="n">
-        <v>1.064836107025299e-05</v>
+        <v>9.554200487316011e-07</v>
       </c>
       <c r="L12" t="n">
-        <v>0.000149434131007552</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M12" t="n">
-        <v>0.001911319665158589</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000010436178249</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O12" t="n">
-        <v>0.001992688500281538</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P12" t="n">
-        <v>91.03984540534006</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q12" t="n">
-        <v>131.2627476259907</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_11</t>
+          <t>model_14_7_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999958957576085</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990441813180779</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999876120312116</v>
+        <v>0.9999999999999789</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999862455440914</v>
+        <v>0.9999945721615463</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999903115105767</v>
+        <v>0.9999988831789071</v>
       </c>
       <c r="G13" t="n">
-        <v>3.831130117034303e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008922147839831537</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I13" t="n">
-        <v>1.126297680913904e-05</v>
+        <v>2.521337463430942e-14</v>
       </c>
       <c r="J13" t="n">
-        <v>1.143610574832995e-05</v>
+        <v>1.910840072249828e-06</v>
       </c>
       <c r="K13" t="n">
-        <v>1.13495412787345e-05</v>
+        <v>9.554200487316011e-07</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0001520521158324685</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M13" t="n">
-        <v>0.001957327289196751</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000010944646377</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O13" t="n">
-        <v>0.002040654764123915</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P13" t="n">
-        <v>90.94470145714895</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q13" t="n">
-        <v>131.1676036777996</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999957054704857</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9990436449206849</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999863460354741</v>
+        <v>0.9999999999999789</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999860122764493</v>
+        <v>0.9999945721615463</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999897374438297</v>
+        <v>0.9999988831789071</v>
       </c>
       <c r="G14" t="n">
-        <v>4.00875479357439e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008927154874044307</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I14" t="n">
-        <v>1.241400333128134e-05</v>
+        <v>2.521337463430942e-14</v>
       </c>
       <c r="J14" t="n">
-        <v>1.163005550836183e-05</v>
+        <v>1.910840072249828e-06</v>
       </c>
       <c r="K14" t="n">
-        <v>1.202202941982158e-05</v>
+        <v>9.554200487316011e-07</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0001543762961254607</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002002187502102236</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000011452078705</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O14" t="n">
-        <v>0.002087424769166229</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P14" t="n">
-        <v>90.85405978032385</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q14" t="n">
-        <v>131.0769620009745</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_13</t>
+          <t>model_14_7_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999955186328214</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C15" t="n">
-        <v>0.999043147096196</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999851431255024</v>
+        <v>0.9999999999999789</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999857871028964</v>
+        <v>0.9999945721615463</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999891907306929</v>
+        <v>0.9999988831789071</v>
       </c>
       <c r="G15" t="n">
-        <v>4.183159551912032e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008931801847127752</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I15" t="n">
-        <v>1.350767311254297e-05</v>
+        <v>2.521337463430942e-14</v>
       </c>
       <c r="J15" t="n">
-        <v>1.181727545948316e-05</v>
+        <v>1.910840072249828e-06</v>
       </c>
       <c r="K15" t="n">
-        <v>1.266247428601307e-05</v>
+        <v>9.554200487316011e-07</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0001564426809594941</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M15" t="n">
-        <v>0.002045277377744161</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000011950312476</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O15" t="n">
-        <v>0.002132349070022571</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P15" t="n">
-        <v>90.76888744658613</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.9917896672368</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_14</t>
+          <t>model_14_7_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999953376170099</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990426848255395</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999840077882108</v>
+        <v>0.9999999999999789</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999855730712413</v>
+        <v>0.9999945721615463</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999886741939754</v>
+        <v>0.9999988831789071</v>
       </c>
       <c r="G16" t="n">
-        <v>4.352129866355232e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008936116940793197</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I16" t="n">
-        <v>1.453990670980577e-05</v>
+        <v>2.521337463430942e-14</v>
       </c>
       <c r="J16" t="n">
-        <v>1.199523150938399e-05</v>
+        <v>1.910840072249828e-06</v>
       </c>
       <c r="K16" t="n">
-        <v>1.326756910959488e-05</v>
+        <v>9.554200487316011e-07</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001582912345012498</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002086175895353801</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000012433021307</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O16" t="n">
-        <v>0.002174988722198455</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P16" t="n">
-        <v>90.68969041648228</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q16" t="n">
-        <v>130.9125926371329</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_15</t>
+          <t>model_14_7_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999951646378228</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9990422536642551</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999829445285284</v>
+        <v>0.9999999999999789</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999853693059083</v>
+        <v>0.9999945721615463</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999881892711426</v>
+        <v>0.9999988831789071</v>
       </c>
       <c r="G17" t="n">
-        <v>4.51359834460687e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008940141642124826</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I17" t="n">
-        <v>1.550660830144371e-05</v>
+        <v>2.521337463430942e-14</v>
       </c>
       <c r="J17" t="n">
-        <v>1.216465165299875e-05</v>
+        <v>1.910840072249828e-06</v>
       </c>
       <c r="K17" t="n">
-        <v>1.383562997722123e-05</v>
+        <v>9.554200487316011e-07</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001599370132362078</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002124523086390654</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000012894299139</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O17" t="n">
-        <v>0.002214968432547376</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P17" t="n">
-        <v>90.61683172691093</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q17" t="n">
-        <v>130.8397339475616</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_16</t>
+          <t>model_14_7_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999950006507318</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990418589168382</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999819563348556</v>
+        <v>0.9999999999999789</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999851777477236</v>
+        <v>0.9999945721615463</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999877378106404</v>
+        <v>0.9999988831789071</v>
       </c>
       <c r="G18" t="n">
-        <v>4.666673095824528e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008943826435988483</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I18" t="n">
-        <v>1.640506087342541e-05</v>
+        <v>2.521337463430942e-14</v>
       </c>
       <c r="J18" t="n">
-        <v>1.232392219581105e-05</v>
+        <v>1.910840072249828e-06</v>
       </c>
       <c r="K18" t="n">
-        <v>1.436449153461823e-05</v>
+        <v>9.554200487316011e-07</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0001614286756479453</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M18" t="n">
-        <v>0.002160248387529667</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000013331598049</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O18" t="n">
-        <v>0.002252214633717446</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P18" t="n">
-        <v>90.55012827868278</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.7730304993334</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_17</t>
+          <t>model_14_7_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999948468635567</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9990414967950808</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999810390159046</v>
+        <v>0.9999999999999789</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999850015863966</v>
+        <v>0.9999945721615463</v>
       </c>
       <c r="F19" t="n">
-        <v>0.999987319317957</v>
+        <v>0.9999988831789071</v>
       </c>
       <c r="G19" t="n">
-        <v>4.810226673263922e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008947206683639815</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I19" t="n">
-        <v>1.723907508896376e-05</v>
+        <v>2.521337463430942e-14</v>
       </c>
       <c r="J19" t="n">
-        <v>1.247039106215087e-05</v>
+        <v>1.910840072249828e-06</v>
       </c>
       <c r="K19" t="n">
-        <v>1.485473307555732e-05</v>
+        <v>9.554200487316011e-07</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0001627176447221763</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M19" t="n">
-        <v>0.002193222896393324</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000013741697182</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O19" t="n">
-        <v>0.002286592935690072</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P19" t="n">
-        <v>90.48953269907656</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.7124349197272</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_18</t>
+          <t>model_14_7_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999947033614807</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990411677845802</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999801949435084</v>
+        <v>0.9999999999999789</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999848372824807</v>
+        <v>0.9999945721615463</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999869334574285</v>
+        <v>0.9999988831789071</v>
       </c>
       <c r="G20" t="n">
-        <v>4.944179562233591e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008950277852244413</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I20" t="n">
-        <v>1.800649450910262e-05</v>
+        <v>2.521337463430942e-14</v>
       </c>
       <c r="J20" t="n">
-        <v>1.260700111555755e-05</v>
+        <v>1.910840072249828e-06</v>
       </c>
       <c r="K20" t="n">
-        <v>1.530674781233008e-05</v>
+        <v>9.554200487316011e-07</v>
       </c>
       <c r="L20" t="n">
-        <v>0.000163887460035476</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M20" t="n">
-        <v>0.002223551115273402</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000014124369385</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O20" t="n">
-        <v>0.002318212289635943</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P20" t="n">
-        <v>90.43459903849282</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q20" t="n">
-        <v>130.6575012591434</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_19</t>
+          <t>model_14_7_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999945698372081</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990408648424183</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999794187426807</v>
+        <v>0.9999999999999789</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999846847716398</v>
+        <v>0.9999945721615463</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999865781203966</v>
+        <v>0.9999988831789071</v>
       </c>
       <c r="G21" t="n">
-        <v>5.068818609592174e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008953105684349292</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I21" t="n">
-        <v>1.871220599984997e-05</v>
+        <v>2.521337463430942e-14</v>
       </c>
       <c r="J21" t="n">
-        <v>1.273380584819505e-05</v>
+        <v>1.910840072249828e-06</v>
       </c>
       <c r="K21" t="n">
-        <v>1.572300592402251e-05</v>
+        <v>9.554200487316011e-07</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0001649300187377792</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M21" t="n">
-        <v>0.002251403697605601</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000014480434112</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O21" t="n">
-        <v>0.002347250614060817</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P21" t="n">
-        <v>90.38480556674625</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.6077077873969</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_20</t>
+          <t>model_14_7_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999944469054589</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9990405876705479</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999787049743626</v>
+        <v>0.9999999999999789</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999845484312915</v>
+        <v>0.9999945721615463</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999862527496317</v>
+        <v>0.9999988831789071</v>
       </c>
       <c r="G22" t="n">
-        <v>5.18357000147079e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008955692962094386</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I22" t="n">
-        <v>1.936115468152774e-05</v>
+        <v>2.521337463430942e-14</v>
       </c>
       <c r="J22" t="n">
-        <v>1.284716566786373e-05</v>
+        <v>1.910840072249828e-06</v>
       </c>
       <c r="K22" t="n">
-        <v>1.610416017469574e-05</v>
+        <v>9.554200487316011e-07</v>
       </c>
       <c r="L22" t="n">
-        <v>0.000165858071881303</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M22" t="n">
-        <v>0.002276745484561415</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N22" t="n">
-        <v>1.00001480825211</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O22" t="n">
-        <v>0.002373671253352071</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P22" t="n">
-        <v>90.34003309920352</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.5629353198541</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_21</t>
+          <t>model_14_7_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999943322603658</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9990403339507846</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999780525400224</v>
+        <v>0.9999999999999789</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999844144234196</v>
+        <v>0.9999945721615463</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999859520079896</v>
+        <v>0.9999988831789071</v>
       </c>
       <c r="G23" t="n">
-        <v>5.290586163514958e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008958061324715044</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I23" t="n">
-        <v>1.995433932459137e-05</v>
+        <v>2.521337463430942e-14</v>
       </c>
       <c r="J23" t="n">
-        <v>1.295858615620691e-05</v>
+        <v>1.910840072249828e-06</v>
       </c>
       <c r="K23" t="n">
-        <v>1.645646274039914e-05</v>
+        <v>9.554200487316011e-07</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0001666885091702509</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M23" t="n">
-        <v>0.00230012742332136</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000015113972358</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O23" t="n">
-        <v>0.002398048609652313</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P23" t="n">
-        <v>90.29916302455027</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q23" t="n">
-        <v>130.5220652452009</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_22</t>
+          <t>model_14_7_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999942275566839</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9990401039187459</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999774573157363</v>
+        <v>0.9999999999999789</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999842955182758</v>
+        <v>0.9999945721615463</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999856788270504</v>
+        <v>0.9999988831789071</v>
       </c>
       <c r="G24" t="n">
-        <v>5.388322454645172e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008960208572824961</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I24" t="n">
-        <v>2.049550934568046e-05</v>
+        <v>2.521337463430942e-14</v>
       </c>
       <c r="J24" t="n">
-        <v>1.305744952140384e-05</v>
+        <v>1.910840072249828e-06</v>
       </c>
       <c r="K24" t="n">
-        <v>1.677647943354215e-05</v>
+        <v>9.554200487316011e-07</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0001674421700161878</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M24" t="n">
-        <v>0.00232127604016523</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000015393182176</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O24" t="n">
-        <v>0.002420097566898899</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P24" t="n">
-        <v>90.2625529087816</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.4854551294322</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_23</t>
+          <t>model_14_7_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999941312346144</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9990398949073266</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999769115353248</v>
+        <v>0.9999999999999789</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999841864516997</v>
+        <v>0.9999945721615463</v>
       </c>
       <c r="F25" t="n">
-        <v>0.999985428324907</v>
+        <v>0.9999988831789071</v>
       </c>
       <c r="G25" t="n">
-        <v>5.478234878402345e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008962159602677859</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I25" t="n">
-        <v>2.099172565225058e-05</v>
+        <v>2.521337463430942e-14</v>
       </c>
       <c r="J25" t="n">
-        <v>1.31481326357788e-05</v>
+        <v>1.910840072249828e-06</v>
       </c>
       <c r="K25" t="n">
-        <v>1.706992914401469e-05</v>
+        <v>9.554200487316011e-07</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0001681130961493973</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M25" t="n">
-        <v>0.002340562940491527</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000015650041028</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O25" t="n">
-        <v>0.002440205550501474</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P25" t="n">
-        <v>90.22945522274364</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.4523574433943</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999940436269905</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9990397061592731</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999764192496338</v>
+        <v>0.9999999999999789</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999840896551422</v>
+        <v>0.9999945721615463</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999852029364134</v>
+        <v>0.9999988831789071</v>
       </c>
       <c r="G26" t="n">
-        <v>5.56001274976023e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008963921482907054</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I26" t="n">
-        <v>2.143930526880171e-05</v>
+        <v>2.521337463430942e-14</v>
       </c>
       <c r="J26" t="n">
-        <v>1.322861387583116e-05</v>
+        <v>1.910840072249828e-06</v>
       </c>
       <c r="K26" t="n">
-        <v>1.733395957231643e-05</v>
+        <v>9.554200487316011e-07</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0001687140277936906</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M26" t="n">
-        <v>0.00235796792806014</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000015883661359</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O26" t="n">
-        <v>0.002458351504424174</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P26" t="n">
-        <v>90.19982031316414</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q26" t="n">
-        <v>130.4227225338147</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
   </sheetData>
